--- a/5BB.xlsx
+++ b/5BB.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>CAROLINADIAZ22@HOTMAIL.COM</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>ruthgon@gmail.com</t>
+  </si>
+  <si>
+    <t>5B</t>
   </si>
 </sst>
 </file>
@@ -161,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,12 +169,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,193 +483,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
